--- a/elite-data/manifest-templates/EL_template_AssayProteomicsTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayProteomicsTemplate.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Filename</t>
   </si>
@@ -29784,11 +29784,11 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="W2:W1000">
-      <formula1>Sheet2!$W$2:$W$26</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="W2:W1000">
+      <formula1>Sheet2!$W$2:$W$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="Y2:Y1000">
       <formula1>Sheet2!$Y$2:$Y$12</formula1>
@@ -30091,7 +30091,7 @@
         <v>69</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -30099,56 +30099,61 @@
         <v>53</v>
       </c>
       <c r="W16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="W17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17">
-      <c r="W17" s="6" t="s">
+    <row r="18">
+      <c r="W18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18">
-      <c r="W18" s="6" t="s">
+    <row r="19">
+      <c r="W19" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19">
-      <c r="W19" s="6" t="s">
+    <row r="20">
+      <c r="W20" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20">
-      <c r="W20" s="6" t="s">
+    <row r="21">
+      <c r="W21" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21">
-      <c r="W21" s="6" t="s">
+    <row r="22">
+      <c r="W22" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22">
-      <c r="W22" s="6" t="s">
+    <row r="23">
+      <c r="W23" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23">
-      <c r="W23" s="6" t="s">
+    <row r="24">
+      <c r="W24" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24">
-      <c r="W24" s="6" t="s">
+    <row r="25">
+      <c r="W25" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25">
-      <c r="W25" s="6" t="s">
+    <row r="26">
+      <c r="W26" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26">
-      <c r="W26" s="6" t="s">
+    <row r="27">
+      <c r="W27" s="6" t="s">
         <v>77</v>
       </c>
     </row>

--- a/elite-data/manifest-templates/EL_template_AssayProteomicsTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayProteomicsTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -491,6 +491,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
